--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NBC18-EQUIPO 4.5 MULTIAXIAL.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NBC18-EQUIPO 4.5 MULTIAXIAL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C4D01F-34D9-4E5D-8F1D-6DDA87840C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C59E2C-0D12-4DCD-993D-48E244365040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="75" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INQUIORT" sheetId="4" r:id="rId1"/>
@@ -22,17 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -140,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="163">
   <si>
     <t>CANT.</t>
   </si>
@@ -626,6 +615,9 @@
   </si>
   <si>
     <t>IVA 15%</t>
+  </si>
+  <si>
+    <t>200112250</t>
   </si>
 </sst>
 </file>
@@ -633,10 +625,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -800,7 +792,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -841,6 +833,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1027,9 +1031,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1072,7 +1076,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1081,8 +1085,8 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1145,7 +1149,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1212,6 +1216,12 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1251,11 +1261,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1328,9 +1338,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1368,7 +1378,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1474,7 +1484,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1616,7 +1626,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1629,8 +1639,8 @@
   </sheetPr>
   <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1656,18 +1666,18 @@
     <row r="2" spans="1:5" ht="16.5" thickBot="1">
       <c r="A2" s="61"/>
       <c r="B2" s="44"/>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="80"/>
+      <c r="E2" s="82"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickBot="1">
       <c r="A3" s="62"/>
       <c r="B3" s="48"/>
-      <c r="C3" s="78"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="49" t="s">
         <v>145</v>
       </c>
@@ -1676,22 +1686,22 @@
     <row r="4" spans="1:5" ht="16.5" thickBot="1">
       <c r="A4" s="62"/>
       <c r="B4" s="48"/>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="84"/>
+      <c r="E4" s="86"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" thickBot="1">
       <c r="A5" s="63"/>
       <c r="B5" s="45"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="85" t="s">
+      <c r="C5" s="84"/>
+      <c r="D5" s="87" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="86"/>
+      <c r="E5" s="88"/>
     </row>
     <row r="6" spans="1:5" ht="18">
       <c r="A6" s="64"/>
@@ -1707,7 +1717,7 @@
       <c r="B7" s="46"/>
       <c r="C7" s="47">
         <f ca="1">NOW()</f>
-        <v>45392.673515856484</v>
+        <v>45401.630128472221</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>26</v>
@@ -1746,10 +1756,10 @@
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="15.75">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="75"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="54" t="s">
         <v>150</v>
       </c>
@@ -1864,13 +1874,13 @@
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="76"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
+      <c r="A23" s="78"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A24" s="67" t="s">
@@ -2240,10 +2250,10 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="36">
+      <c r="B43" s="90">
         <v>2000088649</v>
       </c>
       <c r="C43" s="35" t="s">
@@ -2340,11 +2350,11 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="18" customHeight="1">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="37">
-        <v>2000091528</v>
+      <c r="B48" s="89" t="s">
+        <v>162</v>
       </c>
       <c r="C48" s="34" t="s">
         <v>78</v>
@@ -2680,10 +2690,10 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="18" customHeight="1">
-      <c r="A65" s="36" t="s">
+      <c r="A65" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="36">
+      <c r="B65" s="90">
         <v>210004174</v>
       </c>
       <c r="C65" s="35" t="s">
@@ -2845,7 +2855,7 @@
       <c r="G74" s="22"/>
     </row>
     <row r="75" spans="1:7" ht="15.75">
-      <c r="F75" s="87" t="s">
+      <c r="F75" s="74" t="s">
         <v>39</v>
       </c>
       <c r="G75" s="17">
@@ -2855,7 +2865,7 @@
     </row>
     <row r="76" spans="1:7" ht="15.75">
       <c r="B76" s="4"/>
-      <c r="F76" s="88" t="s">
+      <c r="F76" s="75" t="s">
         <v>161</v>
       </c>
       <c r="G76" s="17">
@@ -2865,7 +2875,7 @@
     </row>
     <row r="77" spans="1:7" ht="15.75">
       <c r="B77" s="4"/>
-      <c r="F77" s="87" t="s">
+      <c r="F77" s="74" t="s">
         <v>40</v>
       </c>
       <c r="G77" s="17">
